--- a/bsd-api-dms-product/sample_product_mamasuka.xlsx
+++ b/bsd-api-dms-product/sample_product_mamasuka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achmad Amri\git\mono-dms-new\bsd-api-dms-product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DB9E25-F219-4447-939D-4CB2DFC62931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C9D859-D147-4595-A0B1-7E8F3A6F48B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{298CAFA9-C02F-4F29-912E-23CDB1EC0819}"/>
   </bookViews>
@@ -610,7 +610,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" activeCellId="1" sqref="D2:D30 N14"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>67</v>
@@ -695,7 +695,7 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>67</v>
@@ -721,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
         <v>67</v>
@@ -747,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
         <v>67</v>
@@ -773,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
         <v>67</v>
@@ -799,7 +799,7 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
         <v>67</v>
@@ -825,7 +825,7 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>67</v>
@@ -851,7 +851,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>67</v>
@@ -877,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>67</v>
@@ -903,7 +903,7 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
         <v>67</v>
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
         <v>67</v>
@@ -955,7 +955,7 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
@@ -981,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
         <v>67</v>
@@ -1007,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
         <v>67</v>
@@ -1033,7 +1033,7 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -1059,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
         <v>67</v>
@@ -1085,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
         <v>67</v>
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
         <v>67</v>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
         <v>67</v>
@@ -1163,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
         <v>67</v>
@@ -1189,7 +1189,7 @@
         <v>8</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
         <v>67</v>
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
         <v>67</v>
@@ -1241,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
         <v>67</v>
@@ -1267,7 +1267,7 @@
         <v>8</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
         <v>67</v>
@@ -1293,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
         <v>67</v>
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
         <v>67</v>
@@ -1345,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
         <v>67</v>
@@ -1371,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
         <v>67</v>
@@ -1397,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
         <v>67</v>
